--- a/src/test/resources/testdata45.xlsx
+++ b/src/test/resources/testdata45.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18864" windowHeight="5424"/>
+    <workbookView xWindow="4788" yWindow="3132" windowWidth="17964" windowHeight="4548" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="MY profie data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O10"/>
+  <oleSize ref="A1:L14"/>
 </workbook>
 </file>
 
@@ -516,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -759,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
